--- a/풀면 정말 좋은 문제.xlsx
+++ b/풀면 정말 좋은 문제.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D497B4-6CCD-449D-8BD0-3269D8011A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>풀어보면 다음에 쉬운 좋은 문제.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀기 전 난이도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀어본 뒤 난이도 &amp; 분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변유정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송경삼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤동근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인수경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +113,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +403,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/풀면 정말 좋은 문제.xlsx
+++ b/풀면 정말 좋은 문제.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D497B4-6CCD-449D-8BD0-3269D8011A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FC5510-FA63-4938-A654-71FC0701BB6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,21 +19,96 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{BFF5C6F5-DCF4-4307-A8C9-4385E298E5BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+최단거리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다익스트라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>풀어보면 다음에 쉬운 좋은 문제.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>풀기 전 난이도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀어본 뒤 난이도 &amp; 분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>김진수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -58,11 +133,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BOJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시</t>
+    <t>PG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022KAKAO BLIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합승 택시 요금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀(알기 싫으면 마우스 올리지 마세요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(할 줄 알고 알면 그나마 쉬움.)중상?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배웠던 개념 복습하기 좋아서. 생각보다 풀기 깔끔.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +202,27 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,10 +248,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,61 +535,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="5" max="5" width="40.75" customWidth="1"/>
+    <col min="6" max="6" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -467,5 +618,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>